--- a/badanie.xlsx
+++ b/badanie.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="96">
   <si>
     <t>klarkamrozek.blogspot.com</t>
   </si>
@@ -199,6 +199,111 @@
   </si>
   <si>
     <t>Selektor pobiera dużo śmieci, pozycyjnie tylko poprawne dane. Obie metody równie skuteczne.</t>
+  </si>
+  <si>
+    <t>macademiangirl.com</t>
+  </si>
+  <si>
+    <t>zakochana-kobieta.blog.onet.pl</t>
+  </si>
+  <si>
+    <t>Pobiera się identycznie. Pozycyjnie zbiera śmieci (łatwo wykrywalne)</t>
+  </si>
+  <si>
+    <t>zmiloscidogotowania.blog.pl</t>
+  </si>
+  <si>
+    <t>Selektorem jest w stanie pobrać więcej, w tym ze stron typu archiwum. Ale są to często ucięte fragmenty wpisów. Mimo to, selektor wygrywa.</t>
+  </si>
+  <si>
+    <t>aktywnisportowo.pl</t>
+  </si>
+  <si>
+    <t>Równa skuteczność.</t>
+  </si>
+  <si>
+    <t>antyapps.pl</t>
+  </si>
+  <si>
+    <t>antymatrix.blog.polityka.pl</t>
+  </si>
+  <si>
+    <t>Zmienna struktura strony sprawia, że zarówno pozycyjnie jak i selektorem nie da się wyciągnąć treści jednocześnie z archiwum jak i z notki. Albo jedno, albo drugie. Równa skuteczność.</t>
+  </si>
+  <si>
+    <t>brandoctor.pl</t>
+  </si>
+  <si>
+    <t>czaplicka.eu</t>
+  </si>
+  <si>
+    <t>glamourina.pl</t>
+  </si>
+  <si>
+    <t>hatalska.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pozycyjnie zdeklasowało selektorem o lata świetlne poprzez niestandardową strukturę strony. Data była w bloku tekstu oddzielona spacją, pojedynczy post był nieoddzielony od nagłówka, koszmar dla selektorów. </t>
+  </si>
+  <si>
+    <t>ittechblog.pl</t>
+  </si>
+  <si>
+    <t>Dziwna struktura strony sprawia, że pobierany jest często śmietnik. Ciężko stwierdzić, która metoda wygrywa, bo w obu przypadkach jest dużo złych danych. Dlatego obie na minus.</t>
+  </si>
+  <si>
+    <t>jestem.mobi</t>
+  </si>
+  <si>
+    <t>Nie da się wyselekcjonować jednocześnie z archiwum i z notek. Co ciekawe, metoda mieszana (post selektorem, elementy pozycyjnie) osiągnęła prawie dobre efekty w jednoczesnej ekstrakcji z obu źródeł.</t>
+  </si>
+  <si>
+    <t>mediafeed.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koszmarnie trudne wybranie selektorów. Mimo wszystko, nie jest to ważne, bo blog nie posiada prawie treści. </t>
+  </si>
+  <si>
+    <t>niebezpiecznik.pl</t>
+  </si>
+  <si>
+    <t>politologianarapie.pl</t>
+  </si>
+  <si>
+    <t>Blog posiada skąpą treść (większość treści jest w filmikach). Mimo to, metoda pozycyjna zebrała dużo śmiecia, kiedy selektorem nie.</t>
+  </si>
+  <si>
+    <t>stayfly.pl</t>
+  </si>
+  <si>
+    <t>Notki na różnych stronach potrafią być w troszkę innym miejscu, co zaburza działanie mojego algorytmu. Idzie to na plus dla selektorowego algorytmu.</t>
+  </si>
+  <si>
+    <t>wdolnymslasku.com</t>
+  </si>
+  <si>
+    <t>Brak pobranych wpisów, wszystko idzie z "archiwum". Działanie niemal identyczne.</t>
+  </si>
+  <si>
+    <t>marketinghotelu.pl</t>
+  </si>
+  <si>
+    <t>brzoskowski.pl</t>
+  </si>
+  <si>
+    <t>Blog ma zaburzoną strukturę html, która uniemożliwia jej analizę.</t>
+  </si>
+  <si>
+    <t>olgasmile.com</t>
+  </si>
+  <si>
+    <t>Metoda selektorowa zbiera więcej śmieci, ale jest równie skuteczna, co metoda pozycyjna</t>
+  </si>
+  <si>
+    <t>webkomunikacja.pl</t>
+  </si>
+  <si>
+    <t>zajadam.pl</t>
   </si>
 </sst>
 </file>
@@ -544,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -610,6 +715,9 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -959,6 +1067,266 @@
       </c>
       <c r="D32" s="3" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="42.75">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="42.75">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="42.75">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="57">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="42.75">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="57">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.5">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="42.75">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="42.75">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28.5">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="28.5">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
